--- a/imageCreationExcel/back/test5.xlsx
+++ b/imageCreationExcel/back/test5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,182 +434,209 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>filename</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>param1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>param1_value</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>param2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>param2_value</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>param3</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>param3_value</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>image_name</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>testpic\8.JPG</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>0.2117313644920927</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>31.34207246452089</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>7.522716981836204</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1_8_sharpness0.21_brightness31.0_equalization7.5.jpg</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>testpic\S.JPG</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.9079866439121125</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>42.18276540038996</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>9.171197412455541</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2_S_gamma0.91_brightness42.0_equalization9.2.jpg</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>testpic\P.JPG</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>47.97039181240707</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.9648273684110822</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>0.6785772694711955</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>3_P_brightness48.0_contrast0.96_sharpness0.68.jpg</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>testpic\1.JPG</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1.156313878082134</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
         <v>0.5090461929230554</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>None</t>
@@ -617,73 +644,89 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>4_1_contrast1.2_sharpness0.51.jpg</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>testpic\S.JPG</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>0.8443211421148191</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.6754128546053331</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>27.98784517533225</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>5_S_sharpness0.84_gamma0.68_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>testpic\C.JPG</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>0.5082183268129319</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
         <v>50.12616557976789</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>None</t>
@@ -691,109 +734,133 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>6_C_sharpness0.51_brightness50.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>testpic\T.JPG</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.8545634566913152</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.8080529242558512</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>0.133431557788604</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>7_T_contrast0.85_gamma0.81_sharpness0.13.jpg</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>testpic\T.JPG</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.9181100826790917</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
         <v>0.07368261546998678</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>0.9989019366917272</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>8_T_gamma0.92_sharpness0.074_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>testpic\T.JPG</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>0.263757582643407</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.9501619488967202</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>None</t>
@@ -801,73 +868,89 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>9_T_sharpness0.26_contrast0.95.jpg</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>testpic\1.JPG</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>1.146961586642911</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
         <v>49.40226482135051</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>0.01302984976779464</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>10_1_contrast1.1_brightness49.0_sharpness0.013.jpg</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>testpic\T.JPG</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>4.269527976033483</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.9077972953252471</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>None</t>
@@ -875,37 +958,45 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>11_T_brightness4.3_gamma0.91.jpg</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>testpic\J.JPG</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.8647322528847274</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>16.18944289251638</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>None</t>
@@ -913,109 +1004,133 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>12_J_contrast0.86_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>testpic\7.JPG</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>55.37176480212739</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
         <v>0.827696137576982</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>27.62581644376011</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>13_7_brightness55.0_sharpness0.83_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>testpic\2.JPG</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>0.8415698029298894</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
         <v>49.23931315828296</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>12.52454224001962</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>14_2_sharpness0.84_brightness49.0_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>testpic\I.JPG</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>1.195259086041963</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.9939126538093043</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>None</t>
@@ -1023,73 +1138,89 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>15_I_contrast1.2_gamma0.99.jpg</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>testpic\E.jpg</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>35.51310180773115</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.8317855421737954</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>6.522998072066088</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>16_E_brightness36.0_gamma0.83_equalization6.5.jpg</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>testpic\8.JPG</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>0.05097895652354345</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>18.42310712090032</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>None</t>
@@ -1097,109 +1228,133 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>17_8_sharpness0.051_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>testpic\7.JPG</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>5.91537051605208</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
         <v>0.5193922682449622</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>8.68381983412568</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>18_7_brightness5.9_sharpness0.52_equalization8.7.jpg</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>testpic\E.jpg</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>0.2616357264330444</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
         <v>13.76826053823008</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>1.007387026107869</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>19_E_sharpness0.26_brightness14.0_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>testpic\3.JPG</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>0.6427563293893095</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
         <v>46.21592667140901</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>None</t>
@@ -1207,37 +1362,45 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>20_3_sharpness0.64_brightness46.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>testpic\2.JPG</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>41.55492110392129</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>5.074423277421394</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>None</t>
@@ -1245,145 +1408,177 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>一致</t>
         </is>
       </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>21_2_brightness42.0_equalization5.1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>testpic\E.jpg</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>0.6187806768243611</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
         <v>2.673050794661656</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>0.6603038853899683</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>ペアのアルファベット</t>
         </is>
       </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>22_E_gamma0.62_brightness2.7_sharpness0.66.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>testpic\P.JPG</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>0.9795000402746685</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>0.7169535977963237</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>44.14182657884736</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>23_P_sharpness0.98_gamma0.72_brightness44.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>testpic\T.JPG</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>33.29906322727281</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>1.12751202180224</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>0.8544604536754777</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>24_T_brightness33.0_contrast1.1_sharpness0.85.jpg</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>testpic\8.JPG</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
         <v>0.8609566714876545</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
         <v>16.55361530023761</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G26" t="inlineStr">
         <is>
           <t>None</t>
@@ -1391,181 +1586,221 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>25_8_sharpness0.86_brightness17.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>testpic\7.JPG</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>0.8826821623590567</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
         <v>55.81794846917712</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>13.61529656342621</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>26_7_contrast0.88_brightness56.0_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>testpic\E.jpg</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>0.7049573346257378</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
         <v>0.5461346346872682</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>10.46524964154457</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>27_E_gamma0.7_sharpness0.55_equalization10.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>testpic\I.JPG</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
         <v>0.9798275984028493</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
         <v>48.9455119623485</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>1.146157697133232</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>28_I_sharpness0.98_brightness49.0_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>testpic\B.JPG</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>0.9649413210957762</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
         <v>0.1458828235058621</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>27.89038295206521</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>29_B_gamma0.96_sharpness0.15_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>testpic\C.JPG</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
         <v>35.27504222940549</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
         <v>0.02531342342543486</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G31" t="inlineStr">
         <is>
           <t>None</t>
@@ -1573,109 +1808,133 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>30_C_brightness35.0_sharpness0.025.jpg</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>testpic\1.JPG</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
         <v>0.5059789746574371</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
         <v>48.22645280577597</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>28.99805044055329</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>31_1_sharpness0.51_brightness48.0_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>testpic\1.JPG</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
         <v>22.65307761004487</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>0.9789970432215755</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>0.6387887682610578</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>32_1_brightness23.0_contrast0.98_gamma0.64.jpg</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>testpic\7.JPG</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>0.8788934197481243</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
         <v>0.7088205742785789</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>None</t>
@@ -1683,73 +1942,89 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>33_7_gamma0.88_sharpness0.71.jpg</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>testpic\B.JPG</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
         <v>55.52848785353439</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
         <v>0.5322267135256276</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>15.51546298959897</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>34_B_brightness56.0_sharpness0.53_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>testpic\S.JPG</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>0.5144372984601802</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>21.10917782061279</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G36" t="inlineStr">
         <is>
           <t>None</t>
@@ -1757,73 +2032,89 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>35_S_gamma0.51_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>testpic\1.JPG</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
         <v>44.88439756805779</v>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>0.8378976474281292</v>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>0.3811978473801617</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>36_1_brightness45.0_gamma0.84_sharpness0.38.jpg</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>testpic\9.JPG</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
         <v>0.6095049469683118</v>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
         <v>30.09115728119158</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>None</t>
@@ -1831,37 +2122,45 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>一致</t>
         </is>
       </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>37_9_sharpness0.61_brightness30.0.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>testpic\E.jpg</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
         <v>0.6546165088558217</v>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>20.3772427502466</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G39" t="inlineStr">
         <is>
           <t>None</t>
@@ -1869,37 +2168,45 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>38_E_sharpness0.65_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>testpic\S.JPG</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>1.150180641596274</v>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>1.011926646426891</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G40" t="inlineStr">
         <is>
           <t>None</t>
@@ -1907,37 +2214,45 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>39_S_contrast1.2_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>testpic\C.JPG</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>0.9443434460403488</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
         <v>44.31924559835478</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>None</t>
@@ -1945,109 +2260,133 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>40_C_contrast0.94_brightness44.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>testpic\2.JPG</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>0.9657641556086631</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
         <v>51.7330328616685</v>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>1.013484530639617</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>41_2_contrast0.97_brightness52.0_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>testpic\I.JPG</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>0.9386962849378809</v>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
         <v>0.3759336938564606</v>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>28.86644234898778</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>42_I_contrast0.94_sharpness0.38_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>testpic\C.JPG</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
         <v>0.6333080875689752</v>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>21.45879974248818</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G44" t="inlineStr">
         <is>
           <t>None</t>
@@ -2055,73 +2394,89 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>43_C_sharpness0.63_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>testpic\I.JPG</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
         <v>0.766244686075129</v>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>0.9520470822944593</v>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>9.061557914562588</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>44_I_sharpness0.77_gamma0.95_equalization9.1.jpg</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>testpic\7.JPG</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>1.117773582890854</v>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>18.87420390271936</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>None</t>
@@ -2129,109 +2484,133 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>45_7_contrast1.1_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>testpic\T.JPG</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>0.6911683121593912</v>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
         <v>13.64465316773005</v>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>15.61182554600054</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>46_T_gamma0.69_brightness14.0_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>testpic\B.JPG</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
         <v>0.6477304814563367</v>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>0.6632678709075506</v>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>1.192663036884436</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>47_B_sharpness0.65_gamma0.66_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>testpic\7.JPG</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>1.07812597187347</v>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>0.9258341877872018</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>None</t>
@@ -2239,181 +2618,221 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>ペアのアルファベットではない</t>
         </is>
       </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>48_7_contrast1.1_gamma0.93.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>testpic\E.jpg</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
         <v>0.7628253328079119</v>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>0.96104364529877</v>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>6.79090495133363</v>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>ペアのアルファベットではない</t>
         </is>
       </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>49_E_sharpness0.76_contrast0.96_equalization6.8.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>testpic\7.JPG</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>0.7819052326240448</v>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
         <v>36.18454943425532</v>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>26.02040232430861</v>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>ペアのアルファベットではない</t>
         </is>
       </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>50_7_gamma0.78_brightness36.0_equalization26.0.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>testpic\T.JPG</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
         <v>0.8221668969903682</v>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>0.6495924460208797</v>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>30.02059820494457</v>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>ペアのアルファベットではない</t>
         </is>
       </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>51_T_sharpness0.82_gamma0.65_equalization30.0.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>testpic\7.JPG</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>0.775956516518322</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
         <v>7.277879855090836</v>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>1.193986336098997</v>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>ペアのアルファベットではない</t>
         </is>
       </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>52_7_gamma0.78_brightness7.3_contrast1.2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>testpic\B.JPG</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
         <v>50.40438941444242</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
         <v>0.980510951692241</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G54" t="inlineStr">
         <is>
           <t>None</t>
@@ -2421,73 +2840,89 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>ペアのアルファベットではない</t>
         </is>
       </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>53_B_brightness50.0_sharpness0.98.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>testpic\B.JPG</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>0.8973109615432127</v>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
         <v>4.917093984106408</v>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>30.35187337615305</v>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>ペアのアルファベットではない</t>
         </is>
       </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>54_B_contrast0.9_brightness4.9_equalization30.0.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>testpic\B.JPG</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
         <v>23.97870338591886</v>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
         <v>0.9599480297414297</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G56" t="inlineStr">
         <is>
           <t>None</t>
@@ -2495,73 +2930,89 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>ペアのアルファベットではない</t>
         </is>
       </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>55_B_brightness24.0_sharpness0.96.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>testpic\J.JPG</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
         <v>24.73697394759847</v>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>0.8739782040706761</v>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>1.071817278478458</v>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>ペアのアルファベットではない</t>
         </is>
       </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>56_J_brightness25.0_contrast0.87_gamma1.1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>testpic\3.JPG</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>0.9448918731600892</v>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>0.8836095531844359</v>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G58" t="inlineStr">
         <is>
           <t>None</t>
@@ -2569,109 +3020,133 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>ペアのアルファベットではない</t>
         </is>
       </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>57_3_contrast0.94_gamma0.88.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>testpic\I.JPG</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>0.7249388731532186</v>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>1.144400357987275</v>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>31.3479955297581</v>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>ペアのアルファベットではない</t>
         </is>
       </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>58_I_gamma0.72_contrast1.1_equalization31.0.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>testpic\I.JPG</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>0.557051924697892</v>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
         <v>0.3664096502735327</v>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
         <v>41.24691399607081</v>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>ペアのアルファベットではない</t>
         </is>
       </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>59_I_gamma0.56_sharpness0.37_brightness41.0.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>testpic\B.JPG</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
         <v>0.3013660862636274</v>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>8.573377850648864</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G61" t="inlineStr">
         <is>
           <t>None</t>
@@ -2679,109 +3154,133 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>ペアのアルファベットではない</t>
         </is>
       </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>60_B_sharpness0.3_equalization8.6.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>testpic\O.jpg</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
         <v>0.33212408032716</v>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>0.9342912918220687</v>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
         <v>44.10863985446078</v>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>ペアのアルファベットではない</t>
         </is>
       </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>61_O_sharpness0.33_gamma0.93_brightness44.0.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>testpic\2.JPG</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
         <v>0.4390239990977628</v>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
         <v>29.03232299454831</v>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>14.04475809708497</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>62_2_sharpness0.44_brightness29.0_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>testpic\B.JPG</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>0.9655805611744552</v>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>0.8439741292890249</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G64" t="inlineStr">
         <is>
           <t>None</t>
@@ -2789,73 +3288,89 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>63_B_gamma0.97_contrast0.84.jpg</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>testpic\3.JPG</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
         <v>0.006550568766969689</v>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
         <v>58.76778882351371</v>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>1.152343754299149</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>64_3_sharpness0.0066_brightness59.0_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>testpic\E.jpg</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>1.026858256080005</v>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
         <v>47.14883719867736</v>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G66" t="inlineStr">
         <is>
           <t>None</t>
@@ -2863,73 +3378,89 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>65_E_contrast1.0_brightness47.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>testpic\8.JPG</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
         <v>0.7120127679456039</v>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
         <v>53.38985849147997</v>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>22.23460275995338</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>66_8_sharpness0.71_brightness53.0_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>testpic\P.JPG</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>1.021027959081849</v>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>1.097142050552846</v>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G68" t="inlineStr">
         <is>
           <t>None</t>
@@ -2937,181 +3468,221 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>67_P_contrast1.0_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>testpic\S.JPG</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
         <v>49.17318269946851</v>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
         <v>0.6638214226247795</v>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>1.041956467611747</v>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>ペアのアルファベット</t>
         </is>
       </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>68_S_brightness49.0_sharpness0.66_contrast1.0.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>testpic\1.JPG</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>0.6623843172860763</v>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
         <v>0.09980472988009093</v>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
         <v>3.747229735352049</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>69_1_gamma0.66_sharpness0.1_brightness3.7.jpg</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>testpic\S.JPG</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
         <v>0.6902707048255051</v>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
         <v>24.03624767932768</v>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>25.67178145014652</v>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>一致</t>
         </is>
       </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>70_S_sharpness0.69_brightness24.0_equalization26.0.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>testpic\1.JPG</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>0.8116420298601082</v>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>0.5057597398198254</v>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>16.46866251198993</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>71_1_contrast0.81_gamma0.51_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>testpic\3.JPG</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
         <v>25.2526088866818</v>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>16.97942705172261</v>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G73" t="inlineStr">
         <is>
           <t>None</t>
@@ -3119,37 +3690,45 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>ペアのアルファベット</t>
         </is>
       </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>72_3_brightness25.0_equalization17.0.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>testpic\J.JPG</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>0.7644071419887117</v>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
         <v>0.8110253121273148</v>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G74" t="inlineStr">
         <is>
           <t>None</t>
@@ -3157,181 +3736,221 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>73_J_gamma0.76_sharpness0.81.jpg</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>testpic\2.JPG</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
         <v>50.9878128406522</v>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>0.5930907598933313</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
         <v>0.7461527711720244</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>74_2_brightness51.0_gamma0.59_sharpness0.75.jpg</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>testpic\I.JPG</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
         <v>10.64476081345769</v>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>0.9704540876630167</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
         <v>0.1668435337940143</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>75_I_brightness11.0_contrast0.97_sharpness0.17.jpg</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>testpic\C.JPG</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
         <v>4.969831808401663</v>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
         <v>0.3203708523451266</v>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>9.614523725899545</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>76_C_brightness5.0_sharpness0.32_equalization9.6.jpg</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>testpic\S.JPG</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
         <v>0.9772203271228539</v>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
         <v>0.002448560329464167</v>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>10.19534612891769</v>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>77_S_contrast0.98_sharpness0.0024_equalization10.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>testpic\3.JPG</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>1.040793624470001</v>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
         <v>20.90242943702518</v>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G79" t="inlineStr">
         <is>
           <t>None</t>
@@ -3339,37 +3958,45 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>78_3_gamma1.0_brightness21.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>testpic\S.JPG</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
         <v>0.2149721357739496</v>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
         <v>44.98975191892487</v>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G80" t="inlineStr">
         <is>
           <t>None</t>
@@ -3377,73 +4004,89 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>79_S_sharpness0.21_brightness45.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>testpic\J.JPG</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
         <v>0.505152110293286</v>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>0.9517984918879264</v>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>23.7372912742216</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>80_J_sharpness0.51_contrast0.95_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>testpic\B.JPG</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
         <v>35.49126022030323</v>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>0.8114034977601075</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G82" t="inlineStr">
         <is>
           <t>None</t>
@@ -3451,37 +4094,45 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>81_B_brightness35.0_gamma0.81.jpg</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>testpic\J.JPG</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
         <v>50.98580174788268</v>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
         <v>0.540904483231764</v>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G83" t="inlineStr">
         <is>
           <t>None</t>
@@ -3489,37 +4140,45 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>82_J_brightness51.0_sharpness0.54.jpg</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>testpic\C.JPG</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
         <v>0.03984866795357234</v>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
         <v>44.36727126162223</v>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G84" t="inlineStr">
         <is>
           <t>None</t>
@@ -3527,73 +4186,89 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>83_C_sharpness0.04_brightness44.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>testpic\J.JPG</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
         <v>19.16746243565835</v>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
         <v>0.172215364522275</v>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>9.088638891732449</v>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>一致</t>
         </is>
       </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>84_J_brightness19.0_sharpness0.17_equalization9.1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>testpic\T.JPG</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="C86" t="n">
+      <c r="D86" t="n">
         <v>0.5331820257751484</v>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>0.9576512185836212</v>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G86" t="inlineStr">
         <is>
           <t>None</t>
@@ -3601,109 +4276,133 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>85_T_gamma0.53_contrast0.96.jpg</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>testpic\8.JPG</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
         <v>31.55488452445749</v>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>0.843762583016976</v>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>17.34697622869339</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>86_8_brightness32.0_contrast0.84_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>testpic\7.JPG</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
         <v>22.96028041861897</v>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
         <v>0.5300320393379465</v>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>31.90277518490853</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>87_7_brightness23.0_sharpness0.53_equalization32.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>testpic\1.JPG</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>0.6608740054087072</v>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>15.23770551681748</v>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G89" t="inlineStr">
         <is>
           <t>None</t>
@@ -3711,37 +4410,45 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>88_1_gamma0.66_equalization15.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>testpic\E.jpg</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C90" t="n">
+      <c r="D90" t="n">
         <v>1.166901445426852</v>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>4.950460119585703</v>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G90" t="inlineStr">
         <is>
           <t>None</t>
@@ -3749,37 +4456,45 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>89_E_contrast1.2_equalization5.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>testpic\P.JPG</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>0.5087374606722025</v>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
         <v>28.27028859350878</v>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G91" t="inlineStr">
         <is>
           <t>None</t>
@@ -3787,37 +4502,45 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>90_P_gamma0.51_brightness28.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>testpic\1.JPG</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="C92" t="n">
+      <c r="D92" t="n">
         <v>0.760909113197677</v>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
         <v>0.1525669468127017</v>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G92" t="inlineStr">
         <is>
           <t>None</t>
@@ -3825,37 +4548,45 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>91_1_gamma0.76_sharpness0.15.jpg</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>testpic\S.JPG</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
         <v>0.2996333558062031</v>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>22.36649893700109</v>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G93" t="inlineStr">
         <is>
           <t>None</t>
@@ -3863,37 +4594,45 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>92_S_sharpness0.3_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>testpic\J.JPG</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
         <v>0.6690979102678666</v>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>19.6333125620951</v>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G94" t="inlineStr">
         <is>
           <t>None</t>
@@ -3901,37 +4640,45 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>93_J_sharpness0.67_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>testpic\B.JPG</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
         <v>0.05085428644032164</v>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>24.90355226877304</v>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G95" t="inlineStr">
         <is>
           <t>None</t>
@@ -3939,37 +4686,45 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>94_B_sharpness0.051_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>testpic\I.JPG</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
         <v>28.47460093450739</v>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
         <v>0.8687246465589477</v>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G96" t="inlineStr">
         <is>
           <t>None</t>
@@ -3977,73 +4732,89 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>95_I_brightness28.0_sharpness0.87.jpg</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>testpic\P.JPG</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C97" t="n">
+      <c r="D97" t="n">
         <v>1.128388953480061</v>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
         <v>24.55738406329677</v>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>5.103330298492832</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>アルファベット</t>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>96_P_contrast1.1_brightness25.0_equalization5.1.jpg</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>testpic\O.jpg</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
         <v>8.259953829034938</v>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>12.87332199536451</v>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G98" t="inlineStr">
         <is>
           <t>None</t>
@@ -4051,37 +4822,45 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>97_O_brightness8.3_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>testpic\2.JPG</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
         <v>0.6379937222643997</v>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>18.96826917598763</v>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G99" t="inlineStr">
         <is>
           <t>None</t>
@@ -4089,37 +4868,45 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>98_2_sharpness0.64_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>testpic\S.JPG</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>1.102986950653214</v>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>0.9022989701565767</v>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G100" t="inlineStr">
         <is>
           <t>None</t>
@@ -4127,37 +4914,45 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
           <t>一致</t>
         </is>
       </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>99_S_contrast1.1_gamma0.9.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>testpic\2.JPG</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>1.195690104713218</v>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>8.382223783463182</v>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="G101" t="inlineStr">
         <is>
           <t>None</t>
@@ -4165,7 +4960,17 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>アルファベット</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>アルファベット</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>100_2_contrast1.2_equalization8.4.jpg</t>
         </is>
       </c>
     </row>
